--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Angptl2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Angptl2-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.004809333333333</v>
+        <v>3.799319333333333</v>
       </c>
       <c r="H2">
-        <v>12.014428</v>
+        <v>11.397958</v>
       </c>
       <c r="I2">
-        <v>0.04337108182100274</v>
+        <v>0.04516380397110807</v>
       </c>
       <c r="J2">
-        <v>0.04337108182100273</v>
+        <v>0.04516380397110807</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N2">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O2">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P2">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q2">
-        <v>655.6352868414631</v>
+        <v>605.9292666708552</v>
       </c>
       <c r="R2">
-        <v>5900.717581573167</v>
+        <v>5453.363400037697</v>
       </c>
       <c r="S2">
-        <v>0.01194440921546873</v>
+        <v>0.01347365027644561</v>
       </c>
       <c r="T2">
-        <v>0.01194440921546873</v>
+        <v>0.01347365027644561</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.004809333333333</v>
+        <v>3.799319333333333</v>
       </c>
       <c r="H3">
-        <v>12.014428</v>
+        <v>11.397958</v>
       </c>
       <c r="I3">
-        <v>0.04337108182100274</v>
+        <v>0.04516380397110807</v>
       </c>
       <c r="J3">
-        <v>0.04337108182100273</v>
+        <v>0.04516380397110807</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q3">
-        <v>691.0638793315719</v>
+        <v>655.604833783042</v>
       </c>
       <c r="R3">
-        <v>6219.574913984147</v>
+        <v>5900.443504047378</v>
       </c>
       <c r="S3">
-        <v>0.01258984977536994</v>
+        <v>0.01457825316554369</v>
       </c>
       <c r="T3">
-        <v>0.01258984977536994</v>
+        <v>0.01457825316554369</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.004809333333333</v>
+        <v>3.799319333333333</v>
       </c>
       <c r="H4">
-        <v>12.014428</v>
+        <v>11.397958</v>
       </c>
       <c r="I4">
-        <v>0.04337108182100274</v>
+        <v>0.04516380397110807</v>
       </c>
       <c r="J4">
-        <v>0.04337108182100273</v>
+        <v>0.04516380397110807</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N4">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q4">
-        <v>446.4888410783337</v>
+        <v>282.6226483016762</v>
       </c>
       <c r="R4">
-        <v>4018.399569705004</v>
+        <v>2543.603834715086</v>
       </c>
       <c r="S4">
-        <v>0.008134164733066862</v>
+        <v>0.006284493806251775</v>
       </c>
       <c r="T4">
-        <v>0.00813416473306686</v>
+        <v>0.006284493806251776</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.004809333333333</v>
+        <v>3.799319333333333</v>
       </c>
       <c r="H5">
-        <v>12.014428</v>
+        <v>11.397958</v>
       </c>
       <c r="I5">
-        <v>0.04337108182100274</v>
+        <v>0.04516380397110807</v>
       </c>
       <c r="J5">
-        <v>0.04337108182100273</v>
+        <v>0.04516380397110807</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N5">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q5">
-        <v>239.2247357980577</v>
+        <v>221.9357735858438</v>
       </c>
       <c r="R5">
-        <v>2153.02262218252</v>
+        <v>1997.421962272594</v>
       </c>
       <c r="S5">
-        <v>0.004358212860384575</v>
+        <v>0.004935039717684435</v>
       </c>
       <c r="T5">
-        <v>0.004358212860384574</v>
+        <v>0.004935039717684436</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.004809333333333</v>
+        <v>3.799319333333333</v>
       </c>
       <c r="H6">
-        <v>12.014428</v>
+        <v>11.397958</v>
       </c>
       <c r="I6">
-        <v>0.04337108182100274</v>
+        <v>0.04516380397110807</v>
       </c>
       <c r="J6">
-        <v>0.04337108182100273</v>
+        <v>0.04516380397110807</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N6">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O6">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P6">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q6">
-        <v>348.2501392563684</v>
+        <v>264.9881468756427</v>
       </c>
       <c r="R6">
-        <v>3134.251253307315</v>
+        <v>2384.893321880784</v>
       </c>
       <c r="S6">
-        <v>0.006344445236712628</v>
+        <v>0.005892367005182561</v>
       </c>
       <c r="T6">
-        <v>0.006344445236712625</v>
+        <v>0.005892367005182563</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>194.427109</v>
       </c>
       <c r="I7">
-        <v>0.7018656279483316</v>
+        <v>0.7704071060399821</v>
       </c>
       <c r="J7">
-        <v>0.7018656279483316</v>
+        <v>0.770407106039982</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N7">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O7">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P7">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q7">
-        <v>10610.01600567014</v>
+        <v>10335.98084650816</v>
       </c>
       <c r="R7">
-        <v>95490.14405103119</v>
+        <v>93023.82761857341</v>
       </c>
       <c r="S7">
-        <v>0.193294008876373</v>
+        <v>0.2298344028751791</v>
       </c>
       <c r="T7">
-        <v>0.1932940088763729</v>
+        <v>0.229834402875179</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>194.427109</v>
       </c>
       <c r="I8">
-        <v>0.7018656279483316</v>
+        <v>0.7704071060399821</v>
       </c>
       <c r="J8">
-        <v>0.7018656279483316</v>
+        <v>0.770407106039982</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q8">
         <v>11183.34990169839</v>
@@ -948,10 +948,10 @@
         <v>100650.1491152855</v>
       </c>
       <c r="S8">
-        <v>0.2037390456349214</v>
+        <v>0.2486767908117189</v>
       </c>
       <c r="T8">
-        <v>0.2037390456349213</v>
+        <v>0.2486767908117189</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>194.427109</v>
       </c>
       <c r="I9">
-        <v>0.7018656279483316</v>
+        <v>0.7704071060399821</v>
       </c>
       <c r="J9">
-        <v>0.7018656279483316</v>
+        <v>0.770407106039982</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N9">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q9">
-        <v>7225.440493015638</v>
+        <v>4820.995519304306</v>
       </c>
       <c r="R9">
-        <v>65028.96443714074</v>
+        <v>43388.95967373875</v>
       </c>
       <c r="S9">
-        <v>0.1316335769942561</v>
+        <v>0.1072013041527209</v>
       </c>
       <c r="T9">
-        <v>0.1316335769942561</v>
+        <v>0.1072013041527209</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>194.427109</v>
       </c>
       <c r="I10">
-        <v>0.7018656279483316</v>
+        <v>0.7704071060399821</v>
       </c>
       <c r="J10">
-        <v>0.7018656279483316</v>
+        <v>0.770407106039982</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N10">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q10">
-        <v>3871.326523618534</v>
+        <v>3785.794862726654</v>
       </c>
       <c r="R10">
-        <v>34841.93871256681</v>
+        <v>34072.15376453989</v>
       </c>
       <c r="S10">
-        <v>0.07052809562396092</v>
+        <v>0.08418222852808906</v>
       </c>
       <c r="T10">
-        <v>0.07052809562396091</v>
+        <v>0.08418222852808906</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>194.427109</v>
       </c>
       <c r="I11">
-        <v>0.7018656279483316</v>
+        <v>0.7704071060399821</v>
       </c>
       <c r="J11">
-        <v>0.7018656279483316</v>
+        <v>0.770407106039982</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N11">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O11">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P11">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q11">
-        <v>5635.663036514358</v>
+        <v>4520.185046856515</v>
       </c>
       <c r="R11">
-        <v>50720.96732862922</v>
+        <v>40681.66542170863</v>
       </c>
       <c r="S11">
-        <v>0.1026709008188202</v>
+        <v>0.1005123796722741</v>
       </c>
       <c r="T11">
-        <v>0.1026709008188202</v>
+        <v>0.1005123796722741</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.472599666666667</v>
+        <v>2.946166666666667</v>
       </c>
       <c r="H12">
-        <v>16.417799</v>
+        <v>8.8385</v>
       </c>
       <c r="I12">
-        <v>0.05926688342963785</v>
+        <v>0.03502208741238024</v>
       </c>
       <c r="J12">
-        <v>0.05926688342963785</v>
+        <v>0.03502208741238024</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N12">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O12">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P12">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q12">
-        <v>895.9301563645383</v>
+        <v>469.8653761902223</v>
       </c>
       <c r="R12">
-        <v>8063.371407280844</v>
+        <v>4228.788385712</v>
       </c>
       <c r="S12">
-        <v>0.01632211784641877</v>
+        <v>0.01044808710194971</v>
       </c>
       <c r="T12">
-        <v>0.01632211784641877</v>
+        <v>0.01044808710194971</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.472599666666667</v>
+        <v>2.946166666666667</v>
       </c>
       <c r="H13">
-        <v>16.417799</v>
+        <v>8.8385</v>
       </c>
       <c r="I13">
-        <v>0.05926688342963785</v>
+        <v>0.03502208741238024</v>
       </c>
       <c r="J13">
-        <v>0.05926688342963785</v>
+        <v>0.03502208741238024</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q13">
-        <v>944.3435731627011</v>
+        <v>508.3860919114999</v>
       </c>
       <c r="R13">
-        <v>8499.092158464309</v>
+        <v>4575.474827203499</v>
       </c>
       <c r="S13">
-        <v>0.01720411683787351</v>
+        <v>0.01130464690286259</v>
       </c>
       <c r="T13">
-        <v>0.0172041168378735</v>
+        <v>0.01130464690286259</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.472599666666667</v>
+        <v>2.946166666666667</v>
       </c>
       <c r="H14">
-        <v>16.417799</v>
+        <v>8.8385</v>
       </c>
       <c r="I14">
-        <v>0.05926688342963785</v>
+        <v>0.03502208741238024</v>
       </c>
       <c r="J14">
-        <v>0.05926688342963785</v>
+        <v>0.03502208741238024</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N14">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q14">
-        <v>610.1300909678786</v>
+        <v>219.1585788449444</v>
       </c>
       <c r="R14">
-        <v>5491.170818710908</v>
+        <v>1972.4272096045</v>
       </c>
       <c r="S14">
-        <v>0.01111539239490889</v>
+        <v>0.004873285066198376</v>
       </c>
       <c r="T14">
-        <v>0.01111539239490889</v>
+        <v>0.004873285066198376</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.472599666666667</v>
+        <v>2.946166666666667</v>
       </c>
       <c r="H15">
-        <v>16.417799</v>
+        <v>8.8385</v>
       </c>
       <c r="I15">
-        <v>0.05926688342963785</v>
+        <v>0.03502208741238024</v>
       </c>
       <c r="J15">
-        <v>0.05926688342963785</v>
+        <v>0.03502208741238024</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N15">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q15">
-        <v>326.9022568665455</v>
+        <v>172.0991895950555</v>
       </c>
       <c r="R15">
-        <v>2942.12031179891</v>
+        <v>1548.8927063555</v>
       </c>
       <c r="S15">
-        <v>0.005955528031880422</v>
+        <v>0.003826856402239232</v>
       </c>
       <c r="T15">
-        <v>0.00595552803188042</v>
+        <v>0.003826856402239233</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.472599666666667</v>
+        <v>2.946166666666667</v>
       </c>
       <c r="H16">
-        <v>16.417799</v>
+        <v>8.8385</v>
       </c>
       <c r="I16">
-        <v>0.05926688342963785</v>
+        <v>0.03502208741238024</v>
       </c>
       <c r="J16">
-        <v>0.05926688342963785</v>
+        <v>0.03502208741238024</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N16">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O16">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P16">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q16">
-        <v>475.886225131406</v>
+        <v>205.4839767053333</v>
       </c>
       <c r="R16">
-        <v>4282.976026182653</v>
+        <v>1849.355790348</v>
       </c>
       <c r="S16">
-        <v>0.00866972831855627</v>
+        <v>0.00456921193913033</v>
       </c>
       <c r="T16">
-        <v>0.008669728318556266</v>
+        <v>0.004569211939130332</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.362402</v>
+        <v>10.035916</v>
       </c>
       <c r="H17">
-        <v>40.087206</v>
+        <v>30.107748</v>
       </c>
       <c r="I17">
-        <v>0.1447114661972582</v>
+        <v>0.1193003543865946</v>
       </c>
       <c r="J17">
-        <v>0.1447114661972582</v>
+        <v>0.1193003543865946</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N17">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O17">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P17">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q17">
-        <v>2187.585360242104</v>
+        <v>1600.564387651797</v>
       </c>
       <c r="R17">
-        <v>19688.26824217894</v>
+        <v>14405.07948886618</v>
       </c>
       <c r="S17">
-        <v>0.03985358210717926</v>
+        <v>0.03559069678650813</v>
       </c>
       <c r="T17">
-        <v>0.03985358210717926</v>
+        <v>0.03559069678650813</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.362402</v>
+        <v>10.035916</v>
       </c>
       <c r="H18">
-        <v>40.087206</v>
+        <v>30.107748</v>
       </c>
       <c r="I18">
-        <v>0.1447114661972582</v>
+        <v>0.1193003543865946</v>
       </c>
       <c r="J18">
-        <v>0.1447114661972582</v>
+        <v>0.1193003543865946</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q18">
-        <v>2305.796005429794</v>
+        <v>1731.782580978252</v>
       </c>
       <c r="R18">
-        <v>20752.16404886814</v>
+        <v>15586.04322880427</v>
       </c>
       <c r="S18">
-        <v>0.04200715185561132</v>
+        <v>0.03850850938285539</v>
       </c>
       <c r="T18">
-        <v>0.04200715185561132</v>
+        <v>0.03850850938285539</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.362402</v>
+        <v>10.035916</v>
       </c>
       <c r="H19">
-        <v>40.087206</v>
+        <v>30.107748</v>
       </c>
       <c r="I19">
-        <v>0.1447114661972582</v>
+        <v>0.1193003543865946</v>
       </c>
       <c r="J19">
-        <v>0.1447114661972582</v>
+        <v>0.1193003543865946</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N19">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q19">
-        <v>1489.749670064062</v>
+        <v>746.5487655033907</v>
       </c>
       <c r="R19">
-        <v>13407.74703057656</v>
+        <v>6718.938889530516</v>
       </c>
       <c r="S19">
-        <v>0.02714036301123835</v>
+        <v>0.01660051351533224</v>
       </c>
       <c r="T19">
-        <v>0.02714036301123835</v>
+        <v>0.01660051351533224</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.362402</v>
+        <v>10.035916</v>
       </c>
       <c r="H20">
-        <v>40.087206</v>
+        <v>30.107748</v>
       </c>
       <c r="I20">
-        <v>0.1447114661972582</v>
+        <v>0.1193003543865946</v>
       </c>
       <c r="J20">
-        <v>0.1447114661972582</v>
+        <v>0.1193003543865946</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N20">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q20">
-        <v>798.19457607406</v>
+        <v>586.2441626217293</v>
       </c>
       <c r="R20">
-        <v>7183.751184666539</v>
+        <v>5276.197463595564</v>
       </c>
       <c r="S20">
-        <v>0.01454156425308685</v>
+        <v>0.01303592557456644</v>
       </c>
       <c r="T20">
-        <v>0.01454156425308685</v>
+        <v>0.01303592557456644</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.362402</v>
+        <v>10.035916</v>
       </c>
       <c r="H21">
-        <v>40.087206</v>
+        <v>30.107748</v>
       </c>
       <c r="I21">
-        <v>0.1447114661972582</v>
+        <v>0.1193003543865946</v>
       </c>
       <c r="J21">
-        <v>0.1447114661972582</v>
+        <v>0.1193003543865946</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N21">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O21">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P21">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q21">
-        <v>1161.967517046898</v>
+        <v>699.967165093856</v>
       </c>
       <c r="R21">
-        <v>10457.70765342208</v>
+        <v>6299.704485844704</v>
       </c>
       <c r="S21">
-        <v>0.02116880497014239</v>
+        <v>0.01556470912733239</v>
       </c>
       <c r="T21">
-        <v>0.02116880497014239</v>
+        <v>0.01556470912733239</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.689392</v>
+        <v>2.532664666666667</v>
       </c>
       <c r="H22">
-        <v>14.068176</v>
+        <v>7.597994</v>
       </c>
       <c r="I22">
-        <v>0.05078494060376965</v>
+        <v>0.03010664818993502</v>
       </c>
       <c r="J22">
-        <v>0.05078494060376965</v>
+        <v>0.03010664818993501</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N22">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O22">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P22">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q22">
-        <v>767.7096743262506</v>
+        <v>403.9185731856143</v>
       </c>
       <c r="R22">
-        <v>6909.387068936255</v>
+        <v>3635.267158670528</v>
       </c>
       <c r="S22">
-        <v>0.01398618819466362</v>
+        <v>0.00898167145014327</v>
       </c>
       <c r="T22">
-        <v>0.01398618819466362</v>
+        <v>0.008981671450143268</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.689392</v>
+        <v>2.532664666666667</v>
       </c>
       <c r="H23">
-        <v>14.068176</v>
+        <v>7.597994</v>
       </c>
       <c r="I23">
-        <v>0.05078494060376965</v>
+        <v>0.03010664818993502</v>
       </c>
       <c r="J23">
-        <v>0.05078494060376965</v>
+        <v>0.03010664818993501</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>517.675491</v>
       </c>
       <c r="O23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q23">
-        <v>809.1944353638239</v>
+        <v>437.032808285006</v>
       </c>
       <c r="R23">
-        <v>7282.749918274415</v>
+        <v>3933.295274565054</v>
       </c>
       <c r="S23">
-        <v>0.01474196045400287</v>
+        <v>0.009718010900047355</v>
       </c>
       <c r="T23">
-        <v>0.01474196045400287</v>
+        <v>0.009718010900047355</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.689392</v>
+        <v>2.532664666666667</v>
       </c>
       <c r="H24">
-        <v>14.068176</v>
+        <v>7.597994</v>
       </c>
       <c r="I24">
-        <v>0.05078494060376965</v>
+        <v>0.03010664818993502</v>
       </c>
       <c r="J24">
-        <v>0.05078494060376965</v>
+        <v>0.03010664818993501</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N24">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q24">
-        <v>522.8117059194186</v>
+        <v>188.3991137763664</v>
       </c>
       <c r="R24">
-        <v>4705.305353274768</v>
+        <v>1695.592023987298</v>
       </c>
       <c r="S24">
-        <v>0.009524619988382105</v>
+        <v>0.004189307087544818</v>
       </c>
       <c r="T24">
-        <v>0.009524619988382103</v>
+        <v>0.004189307087544818</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.689392</v>
+        <v>2.532664666666667</v>
       </c>
       <c r="H25">
-        <v>14.068176</v>
+        <v>7.597994</v>
       </c>
       <c r="I25">
-        <v>0.05078494060376965</v>
+        <v>0.03010664818993502</v>
       </c>
       <c r="J25">
-        <v>0.05078494060376965</v>
+        <v>0.03010664818993501</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N25">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q25">
-        <v>280.1178455404266</v>
+        <v>147.9446297389936</v>
       </c>
       <c r="R25">
-        <v>2521.06060986384</v>
+        <v>1331.501667650942</v>
       </c>
       <c r="S25">
-        <v>0.005103206375314216</v>
+        <v>0.003289747353405587</v>
       </c>
       <c r="T25">
-        <v>0.005103206375314215</v>
+        <v>0.003289747353405587</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.689392</v>
+        <v>2.532664666666667</v>
       </c>
       <c r="H26">
-        <v>14.068176</v>
+        <v>7.597994</v>
       </c>
       <c r="I26">
-        <v>0.05078494060376965</v>
+        <v>0.03010664818993502</v>
       </c>
       <c r="J26">
-        <v>0.05078494060376965</v>
+        <v>0.03010664818993501</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N26">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O26">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P26">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q26">
-        <v>407.7800666900746</v>
+        <v>176.6437768969014</v>
       </c>
       <c r="R26">
-        <v>3670.020600210672</v>
+        <v>1589.793992072112</v>
       </c>
       <c r="S26">
-        <v>0.007428965591406841</v>
+        <v>0.003927911398793983</v>
       </c>
       <c r="T26">
-        <v>0.007428965591406838</v>
+        <v>0.003927911398793983</v>
       </c>
     </row>
   </sheetData>
